--- a/HoursTotaller/TestOutput1.xlsx
+++ b/HoursTotaller/TestOutput1.xlsx
@@ -12,17 +12,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ClientName</t>
+  </si>
+  <si>
+    <t>Assignment</t>
+  </si>
+  <si>
+    <t>DTE</t>
+  </si>
+  <si>
+    <t>TravelTime</t>
+  </si>
+  <si>
+    <t>HouseTime</t>
+  </si>
+  <si>
+    <t>CommunityTime</t>
+  </si>
+  <si>
+    <t>Office/Docum</t>
+  </si>
+  <si>
+    <t>ConsultTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jessie Zoust </t>
+  </si>
+  <si>
+    <t>Kiegan Ross</t>
+  </si>
   <si>
     <t>3/2/2019</t>
   </si>
   <si>
-    <t xml:space="preserve">Jessie Zoust </t>
-  </si>
-  <si>
-    <t>Kiegan Ross</t>
-  </si>
-  <si>
     <t>3/5/2019</t>
   </si>
   <si>
@@ -38,10 +65,16 @@
     <t>3/50/2019</t>
   </si>
   <si>
+    <t xml:space="preserve">Jimmy Bupkiss </t>
+  </si>
+  <si>
     <t>3/6/2019</t>
   </si>
   <si>
-    <t xml:space="preserve">Jimmy Bupkiss </t>
+    <t>3/8/2019</t>
+  </si>
+  <si>
+    <t>3/9/2019</t>
   </si>
 </sst>
 </file>
@@ -86,7 +119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -102,155 +135,284 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="n">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="n">
         <v>2.75</v>
       </c>
-      <c r="E1" t="n">
+      <c r="F2" t="n">
         <v>0.75</v>
       </c>
-      <c r="F1" t="n">
+      <c r="G2" t="n">
         <v>1.0</v>
       </c>
-      <c r="G1" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="H2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.75</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F3" t="n">
         <v>6.25</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="G3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="n">
         <v>1.75</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F4" t="n">
         <v>1.25</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G4" t="n">
         <v>3.75</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="H4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="n">
         <v>1.5</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F5" t="n">
         <v>2.5</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G5" t="n">
         <v>2.0</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="H5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="n">
         <v>1.75</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F6" t="n">
         <v>2.5</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G6" t="n">
         <v>2.25</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="H6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="n">
         <v>2.5</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F7" t="n">
         <v>0.5</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G7" t="n">
         <v>3.25</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="H7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.75</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F8" t="n">
         <v>1.5</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G8" t="n">
         <v>3.0</v>
       </c>
-      <c r="G7" t="n">
-        <v>0.25</v>
+      <c r="H8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
